--- a/Dataset_cours_Power_BI.xlsx
+++ b/Dataset_cours_Power_BI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FR018349\Desktop\PBI\Cours Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/83f80dd623ffbefe/Bureau/PowerBI_WorkSpace/Crédit Breton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C83184F-5A1A-4420-833E-98A312004C93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{4C83184F-5A1A-4420-833E-98A312004C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C0D96B6-3E77-408E-AEE6-8DF8137937DA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demandes de pret" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Situation famille" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Situation famille'!$A$1:$F$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Situation famille'!$A$1:$D$101</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="55">
   <si>
     <t>Numéro client</t>
   </si>
@@ -151,12 +151,6 @@
     <t>Morlaix</t>
   </si>
   <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Prénom</t>
-  </si>
-  <si>
     <t>Date de naissance</t>
   </si>
   <si>
@@ -167,567 +161,6 @@
   </si>
   <si>
     <t>Apport</t>
-  </si>
-  <si>
-    <t>Marisa</t>
-  </si>
-  <si>
-    <t>Albain</t>
-  </si>
-  <si>
-    <t>Ayoub</t>
-  </si>
-  <si>
-    <t>Robby</t>
-  </si>
-  <si>
-    <t>Apolline</t>
-  </si>
-  <si>
-    <t>Pelagie</t>
-  </si>
-  <si>
-    <t>Valentine</t>
-  </si>
-  <si>
-    <t>Alexis</t>
-  </si>
-  <si>
-    <t>Driss</t>
-  </si>
-  <si>
-    <t>Arthur</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Amelie</t>
-  </si>
-  <si>
-    <t>Tigrane</t>
-  </si>
-  <si>
-    <t>Mael</t>
-  </si>
-  <si>
-    <t>Romeo</t>
-  </si>
-  <si>
-    <t>Lana</t>
-  </si>
-  <si>
-    <t>Kristian</t>
-  </si>
-  <si>
-    <t>Xavier</t>
-  </si>
-  <si>
-    <t>Lise</t>
-  </si>
-  <si>
-    <t>Melissa</t>
-  </si>
-  <si>
-    <t>Gael</t>
-  </si>
-  <si>
-    <t>Bastien</t>
-  </si>
-  <si>
-    <t>Nadine</t>
-  </si>
-  <si>
-    <t>Prudence</t>
-  </si>
-  <si>
-    <t>Raphael</t>
-  </si>
-  <si>
-    <t>Maurin</t>
-  </si>
-  <si>
-    <t>Suzanne</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Candice</t>
-  </si>
-  <si>
-    <t>Mae</t>
-  </si>
-  <si>
-    <t>Guillaume</t>
-  </si>
-  <si>
-    <t>Didier</t>
-  </si>
-  <si>
-    <t>Richie</t>
-  </si>
-  <si>
-    <t>Gaetan</t>
-  </si>
-  <si>
-    <t>Hans</t>
-  </si>
-  <si>
-    <t>Willy</t>
-  </si>
-  <si>
-    <t>Romain</t>
-  </si>
-  <si>
-    <t>Sacha</t>
-  </si>
-  <si>
-    <t>Guerric</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Amandine</t>
-  </si>
-  <si>
-    <t>Sebastien</t>
-  </si>
-  <si>
-    <t>Louis</t>
-  </si>
-  <si>
-    <t>Cassandra</t>
-  </si>
-  <si>
-    <t>Andrea</t>
-  </si>
-  <si>
-    <t>Maya</t>
-  </si>
-  <si>
-    <t>Justine</t>
-  </si>
-  <si>
-    <t>Morgan</t>
-  </si>
-  <si>
-    <t>Coralie</t>
-  </si>
-  <si>
-    <t>Celestin</t>
-  </si>
-  <si>
-    <t>Axel</t>
-  </si>
-  <si>
-    <t>Leonie</t>
-  </si>
-  <si>
-    <t>Melina</t>
-  </si>
-  <si>
-    <t>Katel</t>
-  </si>
-  <si>
-    <t>Thibaut</t>
-  </si>
-  <si>
-    <t>Idriss</t>
-  </si>
-  <si>
-    <t>Gabin</t>
-  </si>
-  <si>
-    <t>Dorian</t>
-  </si>
-  <si>
-    <t>Clement</t>
-  </si>
-  <si>
-    <t>Evan</t>
-  </si>
-  <si>
-    <t>Valentin</t>
-  </si>
-  <si>
-    <t>Amadeo</t>
-  </si>
-  <si>
-    <t>Giovanna</t>
-  </si>
-  <si>
-    <t>Stacey</t>
-  </si>
-  <si>
-    <t>Hugo</t>
-  </si>
-  <si>
-    <t>Olaf</t>
-  </si>
-  <si>
-    <t>Elina</t>
-  </si>
-  <si>
-    <t>Matteo</t>
-  </si>
-  <si>
-    <t>Solene</t>
-  </si>
-  <si>
-    <t>Alexandre</t>
-  </si>
-  <si>
-    <t>Lelia</t>
-  </si>
-  <si>
-    <t>Katia</t>
-  </si>
-  <si>
-    <t>Josse</t>
-  </si>
-  <si>
-    <t>Aziz</t>
-  </si>
-  <si>
-    <t>Theresia</t>
-  </si>
-  <si>
-    <t>Romaric</t>
-  </si>
-  <si>
-    <t>Patrik</t>
-  </si>
-  <si>
-    <t>Rene</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Luc</t>
-  </si>
-  <si>
-    <t>Eloise</t>
-  </si>
-  <si>
-    <t>Clementin</t>
-  </si>
-  <si>
-    <t>Mathis</t>
-  </si>
-  <si>
-    <t>Rafaelle</t>
-  </si>
-  <si>
-    <t>Jules</t>
-  </si>
-  <si>
-    <t>Domenico</t>
-  </si>
-  <si>
-    <t>Hortense</t>
-  </si>
-  <si>
-    <t>Lucrece</t>
-  </si>
-  <si>
-    <t>MARTIN</t>
-  </si>
-  <si>
-    <t>BERNARD</t>
-  </si>
-  <si>
-    <t>PETIT</t>
-  </si>
-  <si>
-    <t>ROBERT</t>
-  </si>
-  <si>
-    <t>RICHARD</t>
-  </si>
-  <si>
-    <t>DURAND</t>
-  </si>
-  <si>
-    <t>DUBOIS</t>
-  </si>
-  <si>
-    <t>MOREAU</t>
-  </si>
-  <si>
-    <t>LAURENT</t>
-  </si>
-  <si>
-    <t>SIMON</t>
-  </si>
-  <si>
-    <t>MICHEL</t>
-  </si>
-  <si>
-    <t>LEFEBVRE</t>
-  </si>
-  <si>
-    <t>LEROY</t>
-  </si>
-  <si>
-    <t>ROUX</t>
-  </si>
-  <si>
-    <t>BERTRAND</t>
-  </si>
-  <si>
-    <t>MOREL</t>
-  </si>
-  <si>
-    <t>FOURNIER</t>
-  </si>
-  <si>
-    <t>GIRARD</t>
-  </si>
-  <si>
-    <t>BONNET</t>
-  </si>
-  <si>
-    <t>DUPONT</t>
-  </si>
-  <si>
-    <t>LAMBERT</t>
-  </si>
-  <si>
-    <t>FONTAINE</t>
-  </si>
-  <si>
-    <t>ROUSSEAU</t>
-  </si>
-  <si>
-    <t>VINCENT</t>
-  </si>
-  <si>
-    <t>MULLER</t>
-  </si>
-  <si>
-    <t>LEFEVRE</t>
-  </si>
-  <si>
-    <t>FAURE</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>MERCIER</t>
-  </si>
-  <si>
-    <t>BLANC</t>
-  </si>
-  <si>
-    <t>GUERIN</t>
-  </si>
-  <si>
-    <t>BOYER</t>
-  </si>
-  <si>
-    <t>GARNIER</t>
-  </si>
-  <si>
-    <t>CHEVALIER</t>
-  </si>
-  <si>
-    <t>FRANCOIS</t>
-  </si>
-  <si>
-    <t>LEGRAND</t>
-  </si>
-  <si>
-    <t>GAUTHIER</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>PERRIN</t>
-  </si>
-  <si>
-    <t>ROBIN</t>
-  </si>
-  <si>
-    <t>CLEMENT</t>
-  </si>
-  <si>
-    <t>MORIN</t>
-  </si>
-  <si>
-    <t>NICOLAS</t>
-  </si>
-  <si>
-    <t>HENRY</t>
-  </si>
-  <si>
-    <t>ROUSSEL</t>
-  </si>
-  <si>
-    <t>GAUTIER</t>
-  </si>
-  <si>
-    <t>MASSON</t>
-  </si>
-  <si>
-    <t>MARCHAND</t>
-  </si>
-  <si>
-    <t>DUVAL</t>
-  </si>
-  <si>
-    <t>DENIS</t>
-  </si>
-  <si>
-    <t>DUMONT</t>
-  </si>
-  <si>
-    <t>MARIE</t>
-  </si>
-  <si>
-    <t>LEMAIRE</t>
-  </si>
-  <si>
-    <t>NOEL</t>
-  </si>
-  <si>
-    <t>MEYER</t>
-  </si>
-  <si>
-    <t>DUFOUR</t>
-  </si>
-  <si>
-    <t>MEUNIER</t>
-  </si>
-  <si>
-    <t>BRUN</t>
-  </si>
-  <si>
-    <t>GIRAUD</t>
-  </si>
-  <si>
-    <t>JOLY</t>
-  </si>
-  <si>
-    <t>RIVIERE</t>
-  </si>
-  <si>
-    <t>BRUNET</t>
-  </si>
-  <si>
-    <t>ARNAUD</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>GERARD</t>
-  </si>
-  <si>
-    <t>ROCHE</t>
-  </si>
-  <si>
-    <t>RENARD</t>
-  </si>
-  <si>
-    <t>SCHMITT</t>
-  </si>
-  <si>
-    <t>ROY</t>
-  </si>
-  <si>
-    <t>LEROUX</t>
-  </si>
-  <si>
-    <t>VIDAL</t>
-  </si>
-  <si>
-    <t>CARON</t>
-  </si>
-  <si>
-    <t>PICARD</t>
-  </si>
-  <si>
-    <t>FABRE</t>
-  </si>
-  <si>
-    <t>AUBERT</t>
-  </si>
-  <si>
-    <t>LEMOINE</t>
-  </si>
-  <si>
-    <t>RENAUD</t>
-  </si>
-  <si>
-    <t>DUMAS</t>
-  </si>
-  <si>
-    <t>LACROIX</t>
-  </si>
-  <si>
-    <t>OLIVIER</t>
-  </si>
-  <si>
-    <t>PHILIPPE</t>
-  </si>
-  <si>
-    <t>BOURGEOIS</t>
-  </si>
-  <si>
-    <t>PIERRE</t>
-  </si>
-  <si>
-    <t>BENOIT</t>
-  </si>
-  <si>
-    <t>REY</t>
-  </si>
-  <si>
-    <t>LECLERC</t>
-  </si>
-  <si>
-    <t>ROLLAND</t>
-  </si>
-  <si>
-    <t>LECLERCQ</t>
-  </si>
-  <si>
-    <t>GUILLAUME</t>
-  </si>
-  <si>
-    <t>RAFFAELI</t>
-  </si>
-  <si>
-    <t>ABBAS</t>
-  </si>
-  <si>
-    <t>URBANSKI</t>
-  </si>
-  <si>
-    <t>COSTANZO</t>
-  </si>
-  <si>
-    <t>CAVANI</t>
-  </si>
-  <si>
-    <t>KESSER</t>
-  </si>
-  <si>
-    <t>FALL</t>
-  </si>
-  <si>
-    <t>DRIDER</t>
-  </si>
-  <si>
-    <t>DEL REY</t>
-  </si>
-  <si>
-    <t>OUNAS</t>
   </si>
   <si>
     <t>Séparé</t>
@@ -1119,22 +552,22 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="5" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -1143,7 +576,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1155,7 +588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1175,13 +608,13 @@
         <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1201,13 +634,13 @@
         <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1227,13 +660,13 @@
         <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1253,13 +686,13 @@
         <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1279,13 +712,13 @@
         <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1305,13 +738,13 @@
         <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1331,13 +764,13 @@
         <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1357,13 +790,13 @@
         <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1383,13 +816,13 @@
         <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1409,13 +842,13 @@
         <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1435,13 +868,13 @@
         <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1461,13 +894,13 @@
         <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1487,13 +920,13 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1513,13 +946,13 @@
         <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1539,13 +972,13 @@
         <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1565,13 +998,13 @@
         <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1591,13 +1024,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1617,13 +1050,13 @@
         <v>83</v>
       </c>
       <c r="G19" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1643,13 +1076,13 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1669,13 +1102,13 @@
         <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1695,13 +1128,13 @@
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1721,13 +1154,13 @@
         <v>71</v>
       </c>
       <c r="G23" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1747,13 +1180,13 @@
         <v>92</v>
       </c>
       <c r="G24" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1773,13 +1206,13 @@
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1799,13 +1232,13 @@
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1825,13 +1258,13 @@
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1851,13 +1284,13 @@
         <v>71</v>
       </c>
       <c r="G28" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1877,13 +1310,13 @@
         <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1903,13 +1336,13 @@
         <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1929,13 +1362,13 @@
         <v>85</v>
       </c>
       <c r="G31" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1955,13 +1388,13 @@
         <v>82</v>
       </c>
       <c r="G32" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H32">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1981,13 +1414,13 @@
         <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2007,13 +1440,13 @@
         <v>25</v>
       </c>
       <c r="G34" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H34">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2033,13 +1466,13 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2059,13 +1492,13 @@
         <v>46</v>
       </c>
       <c r="G36" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2085,13 +1518,13 @@
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H37">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2111,13 +1544,13 @@
         <v>46</v>
       </c>
       <c r="G38" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H38">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2137,13 +1570,13 @@
         <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2163,13 +1596,13 @@
         <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H40">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2189,13 +1622,13 @@
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2215,13 +1648,13 @@
         <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H42">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2241,13 +1674,13 @@
         <v>62</v>
       </c>
       <c r="G43" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2267,13 +1700,13 @@
         <v>64</v>
       </c>
       <c r="G44" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H44">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2293,13 +1726,13 @@
         <v>54</v>
       </c>
       <c r="G45" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2319,13 +1752,13 @@
         <v>57</v>
       </c>
       <c r="G46" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H46">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2345,13 +1778,13 @@
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H47">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2371,13 +1804,13 @@
         <v>99</v>
       </c>
       <c r="G48" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2397,13 +1830,13 @@
         <v>96</v>
       </c>
       <c r="G49" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H49">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2423,13 +1856,13 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2449,13 +1882,13 @@
         <v>26</v>
       </c>
       <c r="G51" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H51">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2475,13 +1908,13 @@
         <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H52">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2501,13 +1934,13 @@
         <v>74</v>
       </c>
       <c r="G53" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2527,13 +1960,13 @@
         <v>93</v>
       </c>
       <c r="G54" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H54">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2553,13 +1986,13 @@
         <v>51</v>
       </c>
       <c r="G55" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H55">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2579,13 +2012,13 @@
         <v>53</v>
       </c>
       <c r="G56" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2605,13 +2038,13 @@
         <v>57</v>
       </c>
       <c r="G57" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H57">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2631,13 +2064,13 @@
         <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H58">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2657,13 +2090,13 @@
         <v>98</v>
       </c>
       <c r="G59" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2683,13 +2116,13 @@
         <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2709,13 +2142,13 @@
         <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2735,13 +2168,13 @@
         <v>53</v>
       </c>
       <c r="G62" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H62">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2761,13 +2194,13 @@
         <v>77</v>
       </c>
       <c r="G63" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H63">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2787,13 +2220,13 @@
         <v>24</v>
       </c>
       <c r="G64" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H64">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2813,13 +2246,13 @@
         <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H65">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2839,13 +2272,13 @@
         <v>51</v>
       </c>
       <c r="G66" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H66">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2865,13 +2298,13 @@
         <v>41</v>
       </c>
       <c r="G67" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2891,13 +2324,13 @@
         <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2917,13 +2350,13 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2943,13 +2376,13 @@
         <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2969,13 +2402,13 @@
         <v>69</v>
       </c>
       <c r="G71" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2995,13 +2428,13 @@
         <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H72">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3021,13 +2454,13 @@
         <v>47</v>
       </c>
       <c r="G73" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H73">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3047,13 +2480,13 @@
         <v>75</v>
       </c>
       <c r="G74" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3073,13 +2506,13 @@
         <v>25</v>
       </c>
       <c r="G75" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3099,13 +2532,13 @@
         <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H76">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3125,13 +2558,13 @@
         <v>98</v>
       </c>
       <c r="G77" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H77">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3151,13 +2584,13 @@
         <v>66</v>
       </c>
       <c r="G78" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H78">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3177,13 +2610,13 @@
         <v>2</v>
       </c>
       <c r="G79" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H79">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3203,13 +2636,13 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3229,13 +2662,13 @@
         <v>78</v>
       </c>
       <c r="G81" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H81">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3255,13 +2688,13 @@
         <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H82">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3281,13 +2714,13 @@
         <v>85</v>
       </c>
       <c r="G83" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H83">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3307,13 +2740,13 @@
         <v>59</v>
       </c>
       <c r="G84" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3333,13 +2766,13 @@
         <v>96</v>
       </c>
       <c r="G85" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H85">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3359,13 +2792,13 @@
         <v>98</v>
       </c>
       <c r="G86" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H86">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3385,13 +2818,13 @@
         <v>43</v>
       </c>
       <c r="G87" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H87">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3411,13 +2844,13 @@
         <v>77</v>
       </c>
       <c r="G88" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H88">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3437,13 +2870,13 @@
         <v>94</v>
       </c>
       <c r="G89" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H89">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3463,13 +2896,13 @@
         <v>95</v>
       </c>
       <c r="G90" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3489,13 +2922,13 @@
         <v>8</v>
       </c>
       <c r="G91" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H91">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3515,13 +2948,13 @@
         <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H92">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3541,13 +2974,13 @@
         <v>28</v>
       </c>
       <c r="G93" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H93">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3567,13 +3000,13 @@
         <v>65</v>
       </c>
       <c r="G94" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3593,13 +3026,13 @@
         <v>22</v>
       </c>
       <c r="G95" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H95">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3619,13 +3052,13 @@
         <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H96">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3645,13 +3078,13 @@
         <v>20</v>
       </c>
       <c r="G97" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H97">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3671,13 +3104,13 @@
         <v>91</v>
       </c>
       <c r="G98" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H98">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3697,13 +3130,13 @@
         <v>24</v>
       </c>
       <c r="G99" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H99">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3723,13 +3156,13 @@
         <v>84</v>
       </c>
       <c r="G100" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H100">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3749,13 +3182,13 @@
         <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3775,13 +3208,13 @@
         <v>59</v>
       </c>
       <c r="G102" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H102">
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3801,13 +3234,13 @@
         <v>23</v>
       </c>
       <c r="G103" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H103">
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3827,13 +3260,13 @@
         <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3853,13 +3286,13 @@
         <v>84</v>
       </c>
       <c r="G105" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H105">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3879,13 +3312,13 @@
         <v>67</v>
       </c>
       <c r="G106" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3905,13 +3338,13 @@
         <v>81</v>
       </c>
       <c r="G107" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3931,13 +3364,13 @@
         <v>20</v>
       </c>
       <c r="G108" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H108">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3957,13 +3390,13 @@
         <v>88</v>
       </c>
       <c r="G109" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H109">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3983,13 +3416,13 @@
         <v>44</v>
       </c>
       <c r="G110" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H110">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4009,13 +3442,13 @@
         <v>74</v>
       </c>
       <c r="G111" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4035,13 +3468,13 @@
         <v>27</v>
       </c>
       <c r="G112" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H112">
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4061,13 +3494,13 @@
         <v>16</v>
       </c>
       <c r="G113" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H113">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4087,13 +3520,13 @@
         <v>19</v>
       </c>
       <c r="G114" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H114">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4113,13 +3546,13 @@
         <v>89</v>
       </c>
       <c r="G115" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4139,13 +3572,13 @@
         <v>73</v>
       </c>
       <c r="G116" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4165,13 +3598,13 @@
         <v>96</v>
       </c>
       <c r="G117" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H117">
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4191,13 +3624,13 @@
         <v>70</v>
       </c>
       <c r="G118" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H118">
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4217,13 +3650,13 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H119">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4243,13 +3676,13 @@
         <v>6</v>
       </c>
       <c r="G120" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H120">
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4269,13 +3702,13 @@
         <v>64</v>
       </c>
       <c r="G121" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H121">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4295,13 +3728,13 @@
         <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H122">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4321,13 +3754,13 @@
         <v>78</v>
       </c>
       <c r="G123" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H123">
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4347,13 +3780,13 @@
         <v>56</v>
       </c>
       <c r="G124" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4373,13 +3806,13 @@
         <v>23</v>
       </c>
       <c r="G125" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4399,13 +3832,13 @@
         <v>25</v>
       </c>
       <c r="G126" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H126">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4425,13 +3858,13 @@
         <v>66</v>
       </c>
       <c r="G127" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H127">
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4451,13 +3884,13 @@
         <v>82</v>
       </c>
       <c r="G128" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H128">
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4477,13 +3910,13 @@
         <v>26</v>
       </c>
       <c r="G129" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H129">
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4503,13 +3936,13 @@
         <v>98</v>
       </c>
       <c r="G130" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H130">
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4529,13 +3962,13 @@
         <v>62</v>
       </c>
       <c r="G131" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4555,13 +3988,13 @@
         <v>81</v>
       </c>
       <c r="G132" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4581,13 +4014,13 @@
         <v>59</v>
       </c>
       <c r="G133" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4607,13 +4040,13 @@
         <v>19</v>
       </c>
       <c r="G134" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H134">
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4633,13 +4066,13 @@
         <v>74</v>
       </c>
       <c r="G135" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4659,13 +4092,13 @@
         <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H136">
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4685,13 +4118,13 @@
         <v>86</v>
       </c>
       <c r="G137" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H137">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4711,13 +4144,13 @@
         <v>88</v>
       </c>
       <c r="G138" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H138">
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4737,13 +4170,13 @@
         <v>44</v>
       </c>
       <c r="G139" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H139">
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4763,13 +4196,13 @@
         <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H140">
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4789,13 +4222,13 @@
         <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4815,13 +4248,13 @@
         <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H142">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4841,13 +4274,13 @@
         <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H143">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4867,13 +4300,13 @@
         <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H144">
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4893,13 +4326,13 @@
         <v>3</v>
       </c>
       <c r="G145" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H145">
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4919,13 +4352,13 @@
         <v>17</v>
       </c>
       <c r="G146" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H146">
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4945,13 +4378,13 @@
         <v>42</v>
       </c>
       <c r="G147" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H147">
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4971,13 +4404,13 @@
         <v>18</v>
       </c>
       <c r="G148" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H148">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4997,13 +4430,13 @@
         <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H149">
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5023,13 +4456,13 @@
         <v>83</v>
       </c>
       <c r="G150" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H150">
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5049,13 +4482,13 @@
         <v>71</v>
       </c>
       <c r="G151" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H151">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5075,13 +4508,13 @@
         <v>91</v>
       </c>
       <c r="G152" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H152">
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5101,13 +4534,13 @@
         <v>60</v>
       </c>
       <c r="G153" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H153">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5127,13 +4560,13 @@
         <v>65</v>
       </c>
       <c r="G154" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H154">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5153,13 +4586,13 @@
         <v>64</v>
       </c>
       <c r="G155" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5179,13 +4612,13 @@
         <v>100</v>
       </c>
       <c r="G156" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H156">
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5205,13 +4638,13 @@
         <v>61</v>
       </c>
       <c r="G157" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H157">
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5231,13 +4664,13 @@
         <v>25</v>
       </c>
       <c r="G158" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H158">
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5257,13 +4690,13 @@
         <v>58</v>
       </c>
       <c r="G159" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H159">
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5283,13 +4716,13 @@
         <v>32</v>
       </c>
       <c r="G160" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H160">
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5309,13 +4742,13 @@
         <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H161">
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5335,13 +4768,13 @@
         <v>95</v>
       </c>
       <c r="G162" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H162">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5361,13 +4794,13 @@
         <v>39</v>
       </c>
       <c r="G163" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H163">
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5387,13 +4820,13 @@
         <v>91</v>
       </c>
       <c r="G164" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H164">
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5413,13 +4846,13 @@
         <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H165">
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5439,13 +4872,13 @@
         <v>74</v>
       </c>
       <c r="G166" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H166">
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5465,13 +4898,13 @@
         <v>76</v>
       </c>
       <c r="G167" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H167">
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5491,13 +4924,13 @@
         <v>5</v>
       </c>
       <c r="G168" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H168">
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5517,13 +4950,13 @@
         <v>5</v>
       </c>
       <c r="G169" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H169">
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5543,13 +4976,13 @@
         <v>15</v>
       </c>
       <c r="G170" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H170">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5569,13 +5002,13 @@
         <v>14</v>
       </c>
       <c r="G171" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H171">
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5595,13 +5028,13 @@
         <v>52</v>
       </c>
       <c r="G172" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5621,13 +5054,13 @@
         <v>46</v>
       </c>
       <c r="G173" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5647,13 +5080,13 @@
         <v>50</v>
       </c>
       <c r="G174" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H174">
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5673,13 +5106,13 @@
         <v>94</v>
       </c>
       <c r="G175" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H175">
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5699,13 +5132,13 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H176">
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5725,13 +5158,13 @@
         <v>74</v>
       </c>
       <c r="G177" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H177">
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5751,13 +5184,13 @@
         <v>87</v>
       </c>
       <c r="G178" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H178">
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5777,13 +5210,13 @@
         <v>24</v>
       </c>
       <c r="G179" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H179">
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5803,13 +5236,13 @@
         <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H180">
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5829,13 +5262,13 @@
         <v>10</v>
       </c>
       <c r="G181" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H181">
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5855,13 +5288,13 @@
         <v>85</v>
       </c>
       <c r="G182" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H182">
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5881,13 +5314,13 @@
         <v>2</v>
       </c>
       <c r="G183" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H183">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5907,13 +5340,13 @@
         <v>56</v>
       </c>
       <c r="G184" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H184">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5933,13 +5366,13 @@
         <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H185">
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5959,13 +5392,13 @@
         <v>14</v>
       </c>
       <c r="G186" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H186">
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5985,13 +5418,13 @@
         <v>70</v>
       </c>
       <c r="G187" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H187">
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6011,13 +5444,13 @@
         <v>62</v>
       </c>
       <c r="G188" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H188">
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6037,13 +5470,13 @@
         <v>72</v>
       </c>
       <c r="G189" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H189">
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6063,13 +5496,13 @@
         <v>36</v>
       </c>
       <c r="G190" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H190">
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6089,13 +5522,13 @@
         <v>55</v>
       </c>
       <c r="G191" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H191">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6115,13 +5548,13 @@
         <v>91</v>
       </c>
       <c r="G192" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H192">
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6141,13 +5574,13 @@
         <v>46</v>
       </c>
       <c r="G193" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H193">
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6167,13 +5600,13 @@
         <v>39</v>
       </c>
       <c r="G194" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H194">
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6193,13 +5626,13 @@
         <v>19</v>
       </c>
       <c r="G195" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H195">
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6219,13 +5652,13 @@
         <v>43</v>
       </c>
       <c r="G196" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H196">
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6245,13 +5678,13 @@
         <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="H197">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6272,7 +5705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6293,7 +5726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -6314,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6352,14 +5785,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -6370,7 +5803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6381,7 +5814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6392,7 +5825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6403,7 +5836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6414,7 +5847,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6425,7 +5858,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6449,16 +5882,16 @@
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6475,7 +5908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6492,7 +5925,7 @@
         <v>3686.11675345395</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6509,7 +5942,7 @@
         <v>2928.69089850199</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6526,7 +5959,7 @@
         <v>3011.0855930264552</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6543,7 +5976,7 @@
         <v>4344.5038069212251</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6560,7 +5993,7 @@
         <v>2001.2307573156497</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6577,7 +6010,7 @@
         <v>2484.6962338565959</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6594,7 +6027,7 @@
         <v>2409.992460643392</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6611,7 +6044,7 @@
         <v>3014.5396240873533</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6628,7 +6061,7 @@
         <v>1836.2511480037783</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6645,7 +6078,7 @@
         <v>3514.4773320445393</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6662,7 +6095,7 @@
         <v>2533.266362615881</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6679,7 +6112,7 @@
         <v>2589.7957224201291</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6696,7 +6129,7 @@
         <v>3191.5586315592109</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6713,7 +6146,7 @@
         <v>3517.6386688292177</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6730,7 +6163,7 @@
         <v>3835.9647067371257</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6747,7 +6180,7 @@
         <v>3649.618263311495</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6764,7 +6197,7 @@
         <v>4377.0235708804503</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6781,7 +6214,7 @@
         <v>2493.9592246028651</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6798,7 +6231,7 @@
         <v>2868.0432272076314</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6815,7 +6248,7 @@
         <v>3247.9094551254611</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6832,7 +6265,7 @@
         <v>2128.8669697309952</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6849,7 +6282,7 @@
         <v>2190.885256840892</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6866,7 +6299,7 @@
         <v>1819.3265490878971</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6883,7 +6316,7 @@
         <v>1859.432613874071</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6900,7 +6333,7 @@
         <v>2184.2903341618244</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6917,7 +6350,7 @@
         <v>2080.0220492870294</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6934,7 +6367,7 @@
         <v>1239.7475089035627</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6951,7 +6384,7 @@
         <v>1386.4138884708132</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6968,7 +6401,7 @@
         <v>2183.8953326267902</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6985,7 +6418,7 @@
         <v>2324.1827347754979</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7002,7 +6435,7 @@
         <v>2375.0171168280185</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7019,7 +6452,7 @@
         <v>1999.1894756109723</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7036,7 +6469,7 @@
         <v>1438.9720032715143</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7053,7 +6486,7 @@
         <v>1101.4664172819935</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7070,7 +6503,7 @@
         <v>1569.6877531856458</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7087,7 +6520,7 @@
         <v>2100.3318439724017</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7104,7 +6537,7 @@
         <v>1738.2555916886758</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7121,7 +6554,7 @@
         <v>1436.4282600970787</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -7138,7 +6571,7 @@
         <v>2262.9377001932617</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7155,7 +6588,7 @@
         <v>1457.2187643213604</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7172,7 +6605,7 @@
         <v>2119.9322367132372</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7189,7 +6622,7 @@
         <v>1663.0455964035455</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7206,7 +6639,7 @@
         <v>2606.7015058324769</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7223,7 +6656,7 @@
         <v>2414.7362598854829</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7240,7 +6673,7 @@
         <v>1906.2371100363664</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7257,7 +6690,7 @@
         <v>1956.2319249376756</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7274,7 +6707,7 @@
         <v>1280.5292227978141</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7291,7 +6724,7 @@
         <v>1438.0961098068765</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7308,7 +6741,7 @@
         <v>2527.8440273411825</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7325,7 +6758,7 @@
         <v>2045.0875509701921</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7342,7 +6775,7 @@
         <v>1836.6776253848357</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7359,7 +6792,7 @@
         <v>2259.4636933504344</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7376,7 +6809,7 @@
         <v>1920.4860374135899</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7393,7 +6826,7 @@
         <v>1907.3144564766499</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7410,7 +6843,7 @@
         <v>1311.3326751209047</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7427,7 +6860,7 @@
         <v>2507.736834952454</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7444,7 +6877,7 @@
         <v>2072.5237436843327</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7461,7 +6894,7 @@
         <v>1349.7444122534325</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7478,7 +6911,7 @@
         <v>1224.9989029309581</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7495,7 +6928,7 @@
         <v>942.23668286061309</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7512,7 +6945,7 @@
         <v>914.1033417672727</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7529,7 +6962,7 @@
         <v>1758.4309432845448</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7546,7 +6979,7 @@
         <v>1696.0928930261591</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7563,7 +6996,7 @@
         <v>1485.9527982279892</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7580,7 +7013,7 @@
         <v>1565.4405718733769</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7597,7 +7030,7 @@
         <v>1500.0285032619415</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7614,7 +7047,7 @@
         <v>1517.2090033160789</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7631,7 +7064,7 @@
         <v>1212.0167035182033</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7648,7 +7081,7 @@
         <v>1072.0738220093979</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7665,7 +7098,7 @@
         <v>1117.3630880220712</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7682,7 +7115,7 @@
         <v>1681.4575525794985</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7699,7 +7132,7 @@
         <v>1357.2098261177146</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7716,7 +7149,7 @@
         <v>1500.4174714449514</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7733,7 +7166,7 @@
         <v>1949.7391098696239</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7750,7 +7183,7 @@
         <v>1138.6705503522426</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7767,7 +7200,7 @@
         <v>1686.6571440133268</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7784,7 +7217,7 @@
         <v>1319.3346654986362</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7801,7 +7234,7 @@
         <v>1482.2382182813781</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7818,7 +7251,7 @@
         <v>1465.6798948540968</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7835,7 +7268,7 @@
         <v>991.20995996346392</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7852,7 +7285,7 @@
         <v>1061.4657924334865</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7869,7 +7302,7 @@
         <v>1939.7882963026789</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7886,7 +7319,7 @@
         <v>1302.5648115632043</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7903,7 +7336,7 @@
         <v>1156.3305285667236</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7920,7 +7353,7 @@
         <v>3952.6537819399691</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7937,7 +7370,7 @@
         <v>4141.5574462216809</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7954,7 +7387,7 @@
         <v>1898.6533297954318</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7971,7 +7404,7 @@
         <v>3207.2185282133796</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7988,7 +7421,7 @@
         <v>2321.3114223850985</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8005,7 +7438,7 @@
         <v>2080.318843556337</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8022,7 +7455,7 @@
         <v>4074.8813142744675</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8039,7 +7472,7 @@
         <v>3818.9965815633968</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8056,7 +7489,7 @@
         <v>3313.9582323233467</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8073,7 +7506,7 @@
         <v>2247.0679536837947</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8090,7 +7523,7 @@
         <v>3276.2585976072842</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8107,7 +7540,7 @@
         <v>3149.2775641834014</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8124,7 +7557,7 @@
         <v>695.6316661402584</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8141,7 +7574,7 @@
         <v>757.55063497715992</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8158,7 +7591,7 @@
         <v>1305.5151862100493</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8190,21 +7623,21 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8212,7 +7645,7 @@
         <v>37289.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8220,7 +7653,7 @@
         <v>25345.200000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8228,7 +7661,7 @@
         <v>4394.16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8236,7 +7669,7 @@
         <v>18686.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8244,7 +7677,7 @@
         <v>19778.099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8252,7 +7685,7 @@
         <v>18642.55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8260,7 +7693,7 @@
         <v>17976.84</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8268,7 +7701,7 @@
         <v>34941.01</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8276,7 +7709,7 @@
         <v>17999.150000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8284,7 +7717,7 @@
         <v>21660</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8292,7 +7725,7 @@
         <v>57063.9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8300,7 +7733,7 @@
         <v>46392.800000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8308,7 +7741,7 @@
         <v>55501.66</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8316,7 +7749,7 @@
         <v>20996.799999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8324,7 +7757,7 @@
         <v>3332.34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8332,7 +7765,7 @@
         <v>17360.16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8340,7 +7773,7 @@
         <v>8436</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8348,7 +7781,7 @@
         <v>21167.279999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8356,7 +7789,7 @@
         <v>10100.07</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8364,7 +7797,7 @@
         <v>13628.2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8372,7 +7805,7 @@
         <v>36781.599999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8380,7 +7813,7 @@
         <v>33081.4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8388,7 +7821,7 @@
         <v>14618.88</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8396,7 +7829,7 @@
         <v>41003.85</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8404,7 +7837,7 @@
         <v>45718.94</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8412,7 +7845,7 @@
         <v>40843.65</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8420,7 +7853,7 @@
         <v>27555.64</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8428,7 +7861,7 @@
         <v>21159.9</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8436,7 +7869,7 @@
         <v>32127.67</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8444,7 +7877,7 @@
         <v>56356.800000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8452,7 +7885,7 @@
         <v>62500</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8460,7 +7893,7 @@
         <v>11035.4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8468,7 +7901,7 @@
         <v>29288.49</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8476,7 +7909,7 @@
         <v>36016.800000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8484,7 +7917,7 @@
         <v>31066.48</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8492,7 +7925,7 @@
         <v>15928.55</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8500,7 +7933,7 @@
         <v>40279.800000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8508,7 +7941,7 @@
         <v>27248.16</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8516,7 +7949,7 @@
         <v>74172.2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8524,7 +7957,7 @@
         <v>8823.36</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8532,7 +7965,7 @@
         <v>7554.47</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8540,7 +7973,7 @@
         <v>60766.02</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8548,7 +7981,7 @@
         <v>33966.54</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8556,7 +7989,7 @@
         <v>16143.75</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8564,7 +7997,7 @@
         <v>36727.18</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8572,7 +8005,7 @@
         <v>24395.35</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8580,7 +8013,7 @@
         <v>8255.7199999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8588,7 +8021,7 @@
         <v>15119.8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8596,7 +8029,7 @@
         <v>24917.8</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -8604,7 +8037,7 @@
         <v>52757.46</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -8612,7 +8045,7 @@
         <v>33967.599999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -8620,7 +8053,7 @@
         <v>8819.34</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -8628,7 +8061,7 @@
         <v>32586.19</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -8636,7 +8069,7 @@
         <v>11091.4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -8644,7 +8077,7 @@
         <v>6523.33</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -8652,7 +8085,7 @@
         <v>42395.6</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -8660,7 +8093,7 @@
         <v>10824.15</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -8668,7 +8101,7 @@
         <v>21556.5</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8676,7 +8109,7 @@
         <v>23871.87</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8684,7 +8117,7 @@
         <v>51027.34</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8692,7 +8125,7 @@
         <v>36922</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8700,7 +8133,7 @@
         <v>10451.120000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8708,7 +8141,7 @@
         <v>19148.150000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8716,7 +8149,7 @@
         <v>7534.68</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8724,7 +8157,7 @@
         <v>48147.71</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8732,7 +8165,7 @@
         <v>39808.730000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8740,7 +8173,7 @@
         <v>35393</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8748,7 +8181,7 @@
         <v>35123.269999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8756,7 +8189,7 @@
         <v>14747.23</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8764,7 +8197,7 @@
         <v>33550.01</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8772,7 +8205,7 @@
         <v>11068.45</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8780,7 +8213,7 @@
         <v>23796.36</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8788,7 +8221,7 @@
         <v>35171.629999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8796,7 +8229,7 @@
         <v>46207.95</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8804,7 +8237,7 @@
         <v>44526.45</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8812,7 +8245,7 @@
         <v>24105.8</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8820,7 +8253,7 @@
         <v>13093</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8828,7 +8261,7 @@
         <v>7571.6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8836,7 +8269,7 @@
         <v>41068.160000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8844,7 +8277,7 @@
         <v>15453.97</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8852,7 +8285,7 @@
         <v>18201.060000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8860,7 +8293,7 @@
         <v>4052.32</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8868,7 +8301,7 @@
         <v>33989.89</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8876,7 +8309,7 @@
         <v>28433.55</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8884,7 +8317,7 @@
         <v>14419.23</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8892,7 +8325,7 @@
         <v>27357.040000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8900,7 +8333,7 @@
         <v>14413.02</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8908,7 +8341,7 @@
         <v>10061.36</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -8916,7 +8349,7 @@
         <v>31362.12</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8924,7 +8357,7 @@
         <v>18192.060000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8932,7 +8365,7 @@
         <v>20201.580000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8940,7 +8373,7 @@
         <v>29041.65</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8948,7 +8381,7 @@
         <v>49155.6</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8956,7 +8389,7 @@
         <v>6714.9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8964,7 +8397,7 @@
         <v>4663.95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8972,7 +8405,7 @@
         <v>15555.87</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8980,7 +8413,7 @@
         <v>5236.79</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8988,7 +8421,7 @@
         <v>17060.759999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8996,7 +8429,7 @@
         <v>49892.4</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -9004,7 +8437,7 @@
         <v>18032.939999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -9012,7 +8445,7 @@
         <v>13406.15</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9020,7 +8453,7 @@
         <v>2970.72</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9028,7 +8461,7 @@
         <v>57722.76</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -9036,7 +8469,7 @@
         <v>16486.080000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -9044,7 +8477,7 @@
         <v>52447.360000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -9052,7 +8485,7 @@
         <v>24904.32</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -9060,7 +8493,7 @@
         <v>10990.28</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9068,7 +8501,7 @@
         <v>28466.240000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9076,7 +8509,7 @@
         <v>59776.800000000003</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9084,7 +8517,7 @@
         <v>22485.61</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9092,7 +8525,7 @@
         <v>27960.45</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9100,7 +8533,7 @@
         <v>21101.99</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9108,7 +8541,7 @@
         <v>32904.519999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9116,7 +8549,7 @@
         <v>6040.6</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9124,7 +8557,7 @@
         <v>1885.26</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9132,7 +8565,7 @@
         <v>36928.97</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -9140,7 +8573,7 @@
         <v>43470.31</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -9148,7 +8581,7 @@
         <v>41193.1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -9156,7 +8589,7 @@
         <v>11685.84</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -9164,7 +8597,7 @@
         <v>37426.35</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -9172,7 +8605,7 @@
         <v>16310.34</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -9180,7 +8613,7 @@
         <v>10876.8</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -9188,7 +8621,7 @@
         <v>17979.5</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -9196,7 +8629,7 @@
         <v>10545.27</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -9204,7 +8637,7 @@
         <v>54854.8</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -9212,7 +8645,7 @@
         <v>32010.75</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -9220,7 +8653,7 @@
         <v>59143.68</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -9228,7 +8661,7 @@
         <v>27161.4</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -9236,7 +8669,7 @@
         <v>40621.599999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -9244,7 +8677,7 @@
         <v>7552.62</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -9252,7 +8685,7 @@
         <v>29436.6</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -9260,7 +8693,7 @@
         <v>23978.240000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -9268,7 +8701,7 @@
         <v>35492</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9276,7 +8709,7 @@
         <v>28726.799999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9284,7 +8717,7 @@
         <v>12108</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9292,7 +8725,7 @@
         <v>15968.82</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9300,7 +8733,7 @@
         <v>51582.879999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9308,7 +8741,7 @@
         <v>14146.7</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9316,7 +8749,7 @@
         <v>9263.16</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9324,7 +8757,7 @@
         <v>7228.27</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9332,7 +8765,7 @@
         <v>8797.68</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9340,7 +8773,7 @@
         <v>11506.39</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9348,7 +8781,7 @@
         <v>52289.02</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9356,7 +8789,7 @@
         <v>13807.3</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9364,7 +8797,7 @@
         <v>14872.25</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9372,7 +8805,7 @@
         <v>38989.68</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9380,7 +8813,7 @@
         <v>21165.1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9388,7 +8821,7 @@
         <v>5653.62</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9396,7 +8829,7 @@
         <v>21097.41</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9404,7 +8837,7 @@
         <v>27762.77</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9412,7 +8845,7 @@
         <v>11218.26</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9420,7 +8853,7 @@
         <v>12333.12</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9428,7 +8861,7 @@
         <v>51434.32</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9436,7 +8869,7 @@
         <v>54459.75</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9444,7 +8877,7 @@
         <v>14877.59</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9452,7 +8885,7 @@
         <v>22934.71</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -9460,7 +8893,7 @@
         <v>13438.95</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9468,7 +8901,7 @@
         <v>12337.05</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9476,7 +8909,7 @@
         <v>22174.560000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9484,7 +8917,7 @@
         <v>14630.6</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9492,7 +8925,7 @@
         <v>30937.919999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -9500,7 +8933,7 @@
         <v>17921.04</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -9508,7 +8941,7 @@
         <v>22640.77</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -9516,7 +8949,7 @@
         <v>15818.58</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -9524,7 +8957,7 @@
         <v>22473.49</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -9532,7 +8965,7 @@
         <v>11768.1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -9540,7 +8973,7 @@
         <v>51716.88</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -9548,7 +8981,7 @@
         <v>24997.98</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -9556,7 +8989,7 @@
         <v>39097.96</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -9564,7 +8997,7 @@
         <v>12124.32</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -9572,7 +9005,7 @@
         <v>31431.18</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -9580,7 +9013,7 @@
         <v>41067.839999999997</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -9588,7 +9021,7 @@
         <v>17858.39</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -9596,7 +9029,7 @@
         <v>28926.7</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -9604,7 +9037,7 @@
         <v>38032.400000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -9612,7 +9045,7 @@
         <v>15122.73</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -9620,7 +9053,7 @@
         <v>26044</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9628,7 +9061,7 @@
         <v>60044.800000000003</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -9636,7 +9069,7 @@
         <v>31937.360000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9644,7 +9077,7 @@
         <v>26329.52</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9652,7 +9085,7 @@
         <v>18074</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9660,7 +9093,7 @@
         <v>25225.09</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -9668,7 +9101,7 @@
         <v>16396.8</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -9676,7 +9109,7 @@
         <v>33466.32</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -9684,7 +9117,7 @@
         <v>41898.449999999997</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -9692,7 +9125,7 @@
         <v>28970.799999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9700,7 +9133,7 @@
         <v>54203.1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9708,7 +9141,7 @@
         <v>19870.55</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9716,7 +9149,7 @@
         <v>18389.95</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9724,7 +9157,7 @@
         <v>54846.68</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9732,7 +9165,7 @@
         <v>30698.11</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9740,7 +9173,7 @@
         <v>34553.879999999997</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9748,7 +9181,7 @@
         <v>23259.96</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9756,7 +9189,7 @@
         <v>8634.7800000000007</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9764,7 +9197,7 @@
         <v>24473.84</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9772,7 +9205,7 @@
         <v>6613.33</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9780,7 +9213,7 @@
         <v>56238.21</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9788,7 +9221,7 @@
         <v>26278.12</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9796,7 +9229,7 @@
         <v>78132.2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9811,23 +9244,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE4C5D6-8BF0-48EA-9AE6-50E346154982}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>39</v>
@@ -9838,2015 +9271,1409 @@
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>133</v>
+      <c r="B2" s="3">
+        <v>20861</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="3">
-        <v>20861</v>
-      </c>
-      <c r="E2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F2">
+        <v>43</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>134</v>
+      <c r="B3" s="3">
+        <v>26167</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="3">
-        <v>26167</v>
-      </c>
-      <c r="E3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F3">
+        <v>44</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>231</v>
+      <c r="B4" s="3">
+        <v>20116</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="3">
-        <v>20116</v>
-      </c>
-      <c r="E4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>135</v>
+      <c r="B5" s="3">
+        <v>22799</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="3">
-        <v>22799</v>
-      </c>
-      <c r="E5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F5">
+        <v>43</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>136</v>
+      <c r="B6" s="3">
+        <v>26491</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="3">
-        <v>26491</v>
-      </c>
-      <c r="E6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F6">
+        <v>45</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>137</v>
+      <c r="B7" s="3">
+        <v>34578</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="3">
-        <v>34578</v>
-      </c>
-      <c r="E7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F7">
+        <v>46</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>138</v>
+      <c r="B8" s="3">
+        <v>35014</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="3">
-        <v>35014</v>
-      </c>
-      <c r="E8" t="s">
-        <v>237</v>
-      </c>
-      <c r="F8">
+        <v>48</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>139</v>
+      <c r="B9" s="3">
+        <v>29894</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="3">
-        <v>29894</v>
-      </c>
-      <c r="E9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F9">
+        <v>43</v>
+      </c>
+      <c r="D9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>140</v>
+      <c r="B10" s="3">
+        <v>33279</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3">
-        <v>33279</v>
-      </c>
-      <c r="E10" t="s">
-        <v>232</v>
-      </c>
-      <c r="F10">
+        <v>43</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>141</v>
+      <c r="B11" s="3">
+        <v>31463</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="3">
-        <v>31463</v>
-      </c>
-      <c r="E11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11">
+        <v>45</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>142</v>
+      <c r="B12" s="3">
+        <v>34135</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="3">
-        <v>34135</v>
-      </c>
-      <c r="E12" t="s">
-        <v>233</v>
-      </c>
-      <c r="F12">
+        <v>44</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>143</v>
+      <c r="B13" s="3">
+        <v>27814</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="3">
-        <v>27814</v>
-      </c>
-      <c r="E13" t="s">
-        <v>235</v>
-      </c>
-      <c r="F13">
+        <v>46</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>144</v>
+      <c r="B14" s="3">
+        <v>25284</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="3">
-        <v>25284</v>
-      </c>
-      <c r="E14" t="s">
-        <v>232</v>
-      </c>
-      <c r="F14">
+        <v>43</v>
+      </c>
+      <c r="D14">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>145</v>
+      <c r="B15" s="3">
+        <v>27309</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="3">
-        <v>27309</v>
-      </c>
-      <c r="E15" t="s">
-        <v>233</v>
-      </c>
-      <c r="F15">
+        <v>44</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>146</v>
+      <c r="B16" s="3">
+        <v>30312</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="3">
-        <v>30312</v>
-      </c>
-      <c r="E16" t="s">
-        <v>233</v>
-      </c>
-      <c r="F16">
+        <v>44</v>
+      </c>
+      <c r="D16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>230</v>
+      <c r="B17" s="3">
+        <v>31477</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="3">
-        <v>31477</v>
-      </c>
-      <c r="E17" t="s">
-        <v>233</v>
-      </c>
-      <c r="F17">
+        <v>44</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>147</v>
+      <c r="B18" s="3">
+        <v>34452</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="3">
-        <v>34452</v>
-      </c>
-      <c r="E18" t="s">
-        <v>236</v>
-      </c>
-      <c r="F18">
+        <v>47</v>
+      </c>
+      <c r="D18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>148</v>
+      <c r="B19" s="3">
+        <v>27793</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="3">
-        <v>27793</v>
-      </c>
-      <c r="E19" t="s">
-        <v>233</v>
-      </c>
-      <c r="F19">
+        <v>44</v>
+      </c>
+      <c r="D19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>149</v>
+      <c r="B20" s="3">
+        <v>30008</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="3">
-        <v>30008</v>
-      </c>
-      <c r="E20" t="s">
-        <v>233</v>
-      </c>
-      <c r="F20">
+        <v>44</v>
+      </c>
+      <c r="D20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>150</v>
+      <c r="B21" s="3">
+        <v>30249</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="3">
-        <v>30249</v>
-      </c>
-      <c r="E21" t="s">
-        <v>236</v>
-      </c>
-      <c r="F21">
+        <v>47</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>151</v>
+      <c r="B22" s="3">
+        <v>26584</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="3">
-        <v>26584</v>
-      </c>
-      <c r="E22" t="s">
-        <v>236</v>
-      </c>
-      <c r="F22">
+        <v>47</v>
+      </c>
+      <c r="D22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>152</v>
+      <c r="B23" s="3">
+        <v>26089</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="3">
-        <v>26089</v>
-      </c>
-      <c r="E23" t="s">
-        <v>236</v>
-      </c>
-      <c r="F23">
+        <v>47</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>153</v>
+      <c r="B24" s="3">
+        <v>24504</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="3">
-        <v>24504</v>
-      </c>
-      <c r="E24" t="s">
-        <v>232</v>
-      </c>
-      <c r="F24">
+        <v>43</v>
+      </c>
+      <c r="D24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>154</v>
+      <c r="B25" s="3">
+        <v>32263</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="3">
-        <v>32263</v>
-      </c>
-      <c r="E25" t="s">
-        <v>232</v>
-      </c>
-      <c r="F25">
+        <v>43</v>
+      </c>
+      <c r="D25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>155</v>
+      <c r="B26" s="3">
+        <v>20114</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="3">
-        <v>20114</v>
-      </c>
-      <c r="E26" t="s">
-        <v>233</v>
-      </c>
-      <c r="F26">
+        <v>44</v>
+      </c>
+      <c r="D26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>156</v>
+      <c r="B27" s="3">
+        <v>27625</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="3">
-        <v>27625</v>
-      </c>
-      <c r="E27" t="s">
-        <v>235</v>
-      </c>
-      <c r="F27">
+        <v>46</v>
+      </c>
+      <c r="D27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>157</v>
+      <c r="B28" s="3">
+        <v>23738</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="3">
-        <v>23738</v>
-      </c>
-      <c r="E28" t="s">
-        <v>236</v>
-      </c>
-      <c r="F28">
+        <v>47</v>
+      </c>
+      <c r="D28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>158</v>
+      <c r="B29" s="3">
+        <v>33658</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="3">
-        <v>33658</v>
-      </c>
-      <c r="E29" t="s">
-        <v>236</v>
-      </c>
-      <c r="F29">
+        <v>47</v>
+      </c>
+      <c r="D29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>159</v>
+      <c r="B30" s="3">
+        <v>24146</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="3">
-        <v>24146</v>
-      </c>
-      <c r="E30" t="s">
-        <v>235</v>
-      </c>
-      <c r="F30">
+        <v>46</v>
+      </c>
+      <c r="D30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>160</v>
+      <c r="B31" s="3">
+        <v>29259</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="3">
-        <v>29259</v>
-      </c>
-      <c r="E31" t="s">
-        <v>232</v>
-      </c>
-      <c r="F31">
+        <v>43</v>
+      </c>
+      <c r="D31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>161</v>
+      <c r="B32" s="3">
+        <v>26832</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="3">
-        <v>26832</v>
-      </c>
-      <c r="E32" t="s">
-        <v>235</v>
-      </c>
-      <c r="F32">
+        <v>46</v>
+      </c>
+      <c r="D32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>162</v>
+      <c r="B33" s="3">
+        <v>20200</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="3">
-        <v>20200</v>
-      </c>
-      <c r="E33" t="s">
-        <v>232</v>
-      </c>
-      <c r="F33">
+        <v>43</v>
+      </c>
+      <c r="D33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>163</v>
+      <c r="B34" s="3">
+        <v>31113</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="3">
-        <v>31113</v>
-      </c>
-      <c r="E34" t="s">
-        <v>232</v>
-      </c>
-      <c r="F34">
+        <v>43</v>
+      </c>
+      <c r="D34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>164</v>
+      <c r="B35" s="3">
+        <v>28922</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="3">
-        <v>28922</v>
-      </c>
-      <c r="E35" t="s">
-        <v>232</v>
-      </c>
-      <c r="F35">
+        <v>43</v>
+      </c>
+      <c r="D35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>165</v>
+      <c r="B36" s="3">
+        <v>29037</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="3">
-        <v>29037</v>
-      </c>
-      <c r="E36" t="s">
-        <v>236</v>
-      </c>
-      <c r="F36">
+        <v>47</v>
+      </c>
+      <c r="D36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>166</v>
+      <c r="B37" s="3">
+        <v>33653</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="3">
-        <v>33653</v>
-      </c>
-      <c r="E37" t="s">
-        <v>236</v>
-      </c>
-      <c r="F37">
+        <v>47</v>
+      </c>
+      <c r="D37">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>167</v>
+      <c r="B38" s="3">
+        <v>24099</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="3">
-        <v>24099</v>
-      </c>
-      <c r="E38" t="s">
-        <v>237</v>
-      </c>
-      <c r="F38">
+        <v>48</v>
+      </c>
+      <c r="D38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>168</v>
+      <c r="B39" s="3">
+        <v>34103</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="3">
-        <v>34103</v>
-      </c>
-      <c r="E39" t="s">
-        <v>233</v>
-      </c>
-      <c r="F39">
+        <v>44</v>
+      </c>
+      <c r="D39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>169</v>
+      <c r="B40" s="3">
+        <v>29210</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="3">
-        <v>29210</v>
-      </c>
-      <c r="E40" t="s">
-        <v>235</v>
-      </c>
-      <c r="F40">
+        <v>46</v>
+      </c>
+      <c r="D40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>170</v>
+      <c r="B41" s="3">
+        <v>34452</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="3">
-        <v>34452</v>
-      </c>
-      <c r="E41" t="s">
-        <v>235</v>
-      </c>
-      <c r="F41">
+        <v>46</v>
+      </c>
+      <c r="D41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>171</v>
+      <c r="B42" s="3">
+        <v>24365</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="3">
-        <v>24365</v>
-      </c>
-      <c r="E42" t="s">
-        <v>237</v>
-      </c>
-      <c r="F42">
+        <v>48</v>
+      </c>
+      <c r="D42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>172</v>
+      <c r="B43" s="3">
+        <v>20593</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="3">
-        <v>20593</v>
-      </c>
-      <c r="E43" t="s">
-        <v>232</v>
-      </c>
-      <c r="F43">
+        <v>43</v>
+      </c>
+      <c r="D43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>173</v>
+      <c r="B44" s="3">
+        <v>19909</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="3">
-        <v>19909</v>
-      </c>
-      <c r="E44" t="s">
-        <v>235</v>
-      </c>
-      <c r="F44">
+        <v>46</v>
+      </c>
+      <c r="D44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>174</v>
+      <c r="B45" s="3">
+        <v>31545</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="3">
-        <v>31545</v>
-      </c>
-      <c r="E45" t="s">
-        <v>232</v>
-      </c>
-      <c r="F45">
+        <v>43</v>
+      </c>
+      <c r="D45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>175</v>
+      <c r="B46" s="3">
+        <v>33917</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="3">
-        <v>33917</v>
-      </c>
-      <c r="E46" t="s">
-        <v>237</v>
-      </c>
-      <c r="F46">
+        <v>48</v>
+      </c>
+      <c r="D46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>176</v>
+      <c r="B47" s="3">
+        <v>30699</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="3">
-        <v>30699</v>
-      </c>
-      <c r="E47" t="s">
-        <v>236</v>
-      </c>
-      <c r="F47">
+        <v>47</v>
+      </c>
+      <c r="D47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>177</v>
+      <c r="B48" s="3">
+        <v>30896</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="3">
-        <v>30896</v>
-      </c>
-      <c r="E48" t="s">
-        <v>233</v>
-      </c>
-      <c r="F48">
+        <v>44</v>
+      </c>
+      <c r="D48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>229</v>
+      <c r="B49" s="3">
+        <v>20425</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="3">
-        <v>20425</v>
-      </c>
-      <c r="E49" t="s">
-        <v>235</v>
-      </c>
-      <c r="F49">
+        <v>46</v>
+      </c>
+      <c r="D49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>178</v>
+      <c r="B50" s="3">
+        <v>26364</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="3">
-        <v>26364</v>
-      </c>
-      <c r="E50" t="s">
-        <v>237</v>
-      </c>
-      <c r="F50">
+        <v>48</v>
+      </c>
+      <c r="D50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>179</v>
+      <c r="B51" s="3">
+        <v>23538</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="3">
-        <v>23538</v>
-      </c>
-      <c r="E51" t="s">
-        <v>234</v>
-      </c>
-      <c r="F51">
+        <v>45</v>
+      </c>
+      <c r="D51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>180</v>
+      <c r="B52" s="3">
+        <v>25608</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="3">
-        <v>25608</v>
-      </c>
-      <c r="E52" t="s">
-        <v>236</v>
-      </c>
-      <c r="F52">
+        <v>47</v>
+      </c>
+      <c r="D52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>181</v>
+      <c r="B53" s="3">
+        <v>19982</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="3">
-        <v>19982</v>
-      </c>
-      <c r="E53" t="s">
-        <v>232</v>
-      </c>
-      <c r="F53">
+        <v>43</v>
+      </c>
+      <c r="D53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>182</v>
+      <c r="B54" s="3">
+        <v>23167</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="3">
-        <v>23167</v>
-      </c>
-      <c r="E54" t="s">
-        <v>232</v>
-      </c>
-      <c r="F54">
+        <v>43</v>
+      </c>
+      <c r="D54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>183</v>
+      <c r="B55" s="3">
+        <v>26277</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="3">
-        <v>26277</v>
-      </c>
-      <c r="E55" t="s">
-        <v>234</v>
-      </c>
-      <c r="F55">
+        <v>45</v>
+      </c>
+      <c r="D55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>184</v>
+      <c r="B56" s="3">
+        <v>28185</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="3">
-        <v>28185</v>
-      </c>
-      <c r="E56" t="s">
-        <v>236</v>
-      </c>
-      <c r="F56">
+        <v>47</v>
+      </c>
+      <c r="D56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>185</v>
+      <c r="B57" s="3">
+        <v>20720</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" s="3">
-        <v>20720</v>
-      </c>
-      <c r="E57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F57">
+        <v>45</v>
+      </c>
+      <c r="D57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>186</v>
+      <c r="B58" s="3">
+        <v>31517</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="3">
-        <v>31517</v>
-      </c>
-      <c r="E58" t="s">
-        <v>234</v>
-      </c>
-      <c r="F58">
+        <v>45</v>
+      </c>
+      <c r="D58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>187</v>
+      <c r="B59" s="3">
+        <v>26027</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="3">
-        <v>26027</v>
-      </c>
-      <c r="E59" t="s">
-        <v>235</v>
-      </c>
-      <c r="F59">
+        <v>46</v>
+      </c>
+      <c r="D59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>188</v>
+      <c r="B60" s="3">
+        <v>26011</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="3">
-        <v>26011</v>
-      </c>
-      <c r="E60" t="s">
-        <v>236</v>
-      </c>
-      <c r="F60">
+        <v>47</v>
+      </c>
+      <c r="D60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>189</v>
+      <c r="B61" s="3">
+        <v>30958</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="3">
-        <v>30958</v>
-      </c>
-      <c r="E61" t="s">
-        <v>235</v>
-      </c>
-      <c r="F61">
+        <v>46</v>
+      </c>
+      <c r="D61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>190</v>
+      <c r="B62" s="3">
+        <v>30608</v>
       </c>
       <c r="C62" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" s="3">
-        <v>30608</v>
-      </c>
-      <c r="E62" t="s">
-        <v>233</v>
-      </c>
-      <c r="F62">
+        <v>44</v>
+      </c>
+      <c r="D62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>228</v>
+      <c r="B63" s="3">
+        <v>22785</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" s="3">
-        <v>22785</v>
-      </c>
-      <c r="E63" t="s">
-        <v>232</v>
-      </c>
-      <c r="F63">
+        <v>43</v>
+      </c>
+      <c r="D63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>191</v>
+      <c r="B64" s="3">
+        <v>33016</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" s="3">
-        <v>33016</v>
-      </c>
-      <c r="E64" t="s">
-        <v>236</v>
-      </c>
-      <c r="F64">
+        <v>47</v>
+      </c>
+      <c r="D64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>192</v>
+      <c r="B65" s="3">
+        <v>21079</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" s="3">
-        <v>21079</v>
-      </c>
-      <c r="E65" t="s">
-        <v>237</v>
-      </c>
-      <c r="F65">
+        <v>48</v>
+      </c>
+      <c r="D65">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>193</v>
+      <c r="B66" s="3">
+        <v>25662</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
-      </c>
-      <c r="D66" s="3">
-        <v>25662</v>
-      </c>
-      <c r="E66" t="s">
-        <v>235</v>
-      </c>
-      <c r="F66">
+        <v>46</v>
+      </c>
+      <c r="D66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>227</v>
+      <c r="B67" s="3">
+        <v>23646</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D67" s="3">
-        <v>23646</v>
-      </c>
-      <c r="E67" t="s">
-        <v>232</v>
-      </c>
-      <c r="F67">
+        <v>43</v>
+      </c>
+      <c r="D67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>194</v>
+      <c r="B68" s="3">
+        <v>22447</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" s="3">
-        <v>22447</v>
-      </c>
-      <c r="E68" t="s">
-        <v>234</v>
-      </c>
-      <c r="F68">
+        <v>45</v>
+      </c>
+      <c r="D68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>39</v>
+      <c r="B69" s="3">
+        <v>21653</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
-      </c>
-      <c r="D69" s="3">
-        <v>21653</v>
-      </c>
-      <c r="E69" t="s">
-        <v>233</v>
-      </c>
-      <c r="F69">
+        <v>44</v>
+      </c>
+      <c r="D69">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>226</v>
+      <c r="B70" s="3">
+        <v>34792</v>
       </c>
       <c r="C70" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" s="3">
-        <v>34792</v>
-      </c>
-      <c r="E70" t="s">
-        <v>236</v>
-      </c>
-      <c r="F70">
+        <v>47</v>
+      </c>
+      <c r="D70">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>225</v>
+      <c r="B71" s="3">
+        <v>28561</v>
       </c>
       <c r="C71" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" s="3">
-        <v>28561</v>
-      </c>
-      <c r="E71" t="s">
-        <v>235</v>
-      </c>
-      <c r="F71">
+        <v>46</v>
+      </c>
+      <c r="D71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>195</v>
+      <c r="B72" s="3">
+        <v>23869</v>
       </c>
       <c r="C72" t="s">
-        <v>108</v>
-      </c>
-      <c r="D72" s="3">
-        <v>23869</v>
-      </c>
-      <c r="E72" t="s">
-        <v>232</v>
-      </c>
-      <c r="F72">
+        <v>43</v>
+      </c>
+      <c r="D72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>196</v>
+      <c r="B73" s="3">
+        <v>32794</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
-      </c>
-      <c r="D73" s="3">
-        <v>32794</v>
-      </c>
-      <c r="E73" t="s">
-        <v>234</v>
-      </c>
-      <c r="F73">
+        <v>45</v>
+      </c>
+      <c r="D73">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>197</v>
+      <c r="B74" s="3">
+        <v>20213</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
-      </c>
-      <c r="D74" s="3">
-        <v>20213</v>
-      </c>
-      <c r="E74" t="s">
-        <v>235</v>
-      </c>
-      <c r="F74">
+        <v>46</v>
+      </c>
+      <c r="D74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>198</v>
+      <c r="B75" s="3">
+        <v>21639</v>
       </c>
       <c r="C75" t="s">
-        <v>111</v>
-      </c>
-      <c r="D75" s="3">
-        <v>21639</v>
-      </c>
-      <c r="E75" t="s">
-        <v>233</v>
-      </c>
-      <c r="F75">
+        <v>44</v>
+      </c>
+      <c r="D75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>199</v>
+      <c r="B76" s="3">
+        <v>34419</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76" s="3">
-        <v>34419</v>
-      </c>
-      <c r="E76" t="s">
-        <v>232</v>
-      </c>
-      <c r="F76">
+        <v>43</v>
+      </c>
+      <c r="D76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>200</v>
+      <c r="B77" s="3">
+        <v>29185</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" s="3">
-        <v>29185</v>
-      </c>
-      <c r="E77" t="s">
-        <v>233</v>
-      </c>
-      <c r="F77">
+        <v>44</v>
+      </c>
+      <c r="D77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>201</v>
+      <c r="B78" s="3">
+        <v>22798</v>
       </c>
       <c r="C78" t="s">
-        <v>114</v>
-      </c>
-      <c r="D78" s="3">
-        <v>22798</v>
-      </c>
-      <c r="E78" t="s">
-        <v>233</v>
-      </c>
-      <c r="F78">
+        <v>44</v>
+      </c>
+      <c r="D78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>202</v>
+      <c r="B79" s="3">
+        <v>34784</v>
       </c>
       <c r="C79" t="s">
-        <v>115</v>
-      </c>
-      <c r="D79" s="3">
-        <v>34784</v>
-      </c>
-      <c r="E79" t="s">
-        <v>237</v>
-      </c>
-      <c r="F79">
+        <v>48</v>
+      </c>
+      <c r="D79">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>224</v>
+      <c r="B80" s="3">
+        <v>30802</v>
       </c>
       <c r="C80" t="s">
-        <v>116</v>
-      </c>
-      <c r="D80" s="3">
-        <v>30802</v>
-      </c>
-      <c r="E80" t="s">
-        <v>232</v>
-      </c>
-      <c r="F80">
+        <v>43</v>
+      </c>
+      <c r="D80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>203</v>
+      <c r="B81" s="3">
+        <v>32885</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
-      </c>
-      <c r="D81" s="3">
-        <v>32885</v>
-      </c>
-      <c r="E81" t="s">
-        <v>233</v>
-      </c>
-      <c r="F81">
+        <v>44</v>
+      </c>
+      <c r="D81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>204</v>
+      <c r="B82" s="3">
+        <v>34420</v>
       </c>
       <c r="C82" t="s">
-        <v>117</v>
-      </c>
-      <c r="D82" s="3">
-        <v>34420</v>
-      </c>
-      <c r="E82" t="s">
-        <v>232</v>
-      </c>
-      <c r="F82">
+        <v>43</v>
+      </c>
+      <c r="D82">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>205</v>
+      <c r="B83" s="3">
+        <v>33726</v>
       </c>
       <c r="C83" t="s">
-        <v>57</v>
-      </c>
-      <c r="D83" s="3">
-        <v>33726</v>
-      </c>
-      <c r="E83" t="s">
-        <v>234</v>
-      </c>
-      <c r="F83">
+        <v>45</v>
+      </c>
+      <c r="D83">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>223</v>
+      <c r="B84" s="3">
+        <v>27458</v>
       </c>
       <c r="C84" t="s">
-        <v>118</v>
-      </c>
-      <c r="D84" s="3">
-        <v>27458</v>
-      </c>
-      <c r="E84" t="s">
-        <v>234</v>
-      </c>
-      <c r="F84">
+        <v>45</v>
+      </c>
+      <c r="D84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>206</v>
+      <c r="B85" s="3">
+        <v>32636</v>
       </c>
       <c r="C85" t="s">
-        <v>119</v>
-      </c>
-      <c r="D85" s="3">
-        <v>32636</v>
-      </c>
-      <c r="E85" t="s">
-        <v>233</v>
-      </c>
-      <c r="F85">
+        <v>44</v>
+      </c>
+      <c r="D85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>207</v>
+      <c r="B86" s="3">
+        <v>34403</v>
       </c>
       <c r="C86" t="s">
-        <v>120</v>
-      </c>
-      <c r="D86" s="3">
-        <v>34403</v>
-      </c>
-      <c r="E86" t="s">
-        <v>232</v>
-      </c>
-      <c r="F86">
+        <v>43</v>
+      </c>
+      <c r="D86">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>208</v>
+      <c r="B87" s="3">
+        <v>23193</v>
       </c>
       <c r="C87" t="s">
-        <v>121</v>
-      </c>
-      <c r="D87" s="3">
-        <v>23193</v>
-      </c>
-      <c r="E87" t="s">
-        <v>233</v>
-      </c>
-      <c r="F87">
+        <v>44</v>
+      </c>
+      <c r="D87">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>209</v>
+      <c r="B88" s="3">
+        <v>22663</v>
       </c>
       <c r="C88" t="s">
-        <v>122</v>
-      </c>
-      <c r="D88" s="3">
-        <v>22663</v>
-      </c>
-      <c r="E88" t="s">
-        <v>234</v>
-      </c>
-      <c r="F88">
+        <v>45</v>
+      </c>
+      <c r="D88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>210</v>
+      <c r="B89" s="3">
+        <v>34583</v>
       </c>
       <c r="C89" t="s">
-        <v>123</v>
-      </c>
-      <c r="D89" s="3">
-        <v>34583</v>
-      </c>
-      <c r="E89" t="s">
-        <v>232</v>
-      </c>
-      <c r="F89">
+        <v>43</v>
+      </c>
+      <c r="D89">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>211</v>
+      <c r="B90" s="3">
+        <v>35006</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
-      </c>
-      <c r="D90" s="3">
-        <v>35006</v>
-      </c>
-      <c r="E90" t="s">
-        <v>236</v>
-      </c>
-      <c r="F90">
+        <v>47</v>
+      </c>
+      <c r="D90">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>212</v>
+      <c r="B91" s="3">
+        <v>25958</v>
       </c>
       <c r="C91" t="s">
-        <v>125</v>
-      </c>
-      <c r="D91" s="3">
-        <v>25958</v>
-      </c>
-      <c r="E91" t="s">
-        <v>236</v>
-      </c>
-      <c r="F91">
+        <v>47</v>
+      </c>
+      <c r="D91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>213</v>
+      <c r="B92" s="3">
+        <v>21644</v>
       </c>
       <c r="C92" t="s">
-        <v>126</v>
-      </c>
-      <c r="D92" s="3">
-        <v>21644</v>
-      </c>
-      <c r="E92" t="s">
-        <v>232</v>
-      </c>
-      <c r="F92">
+        <v>43</v>
+      </c>
+      <c r="D92">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>214</v>
+      <c r="B93" s="3">
+        <v>32993</v>
       </c>
       <c r="C93" t="s">
-        <v>127</v>
-      </c>
-      <c r="D93" s="3">
-        <v>32993</v>
-      </c>
-      <c r="E93" t="s">
-        <v>236</v>
-      </c>
-      <c r="F93">
+        <v>47</v>
+      </c>
+      <c r="D93">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>215</v>
+      <c r="B94" s="3">
+        <v>29195</v>
       </c>
       <c r="C94" t="s">
-        <v>80</v>
-      </c>
-      <c r="D94" s="3">
-        <v>29195</v>
-      </c>
-      <c r="E94" t="s">
-        <v>234</v>
-      </c>
-      <c r="F94">
+        <v>45</v>
+      </c>
+      <c r="D94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>216</v>
+      <c r="B95" s="3">
+        <v>33133</v>
       </c>
       <c r="C95" t="s">
-        <v>128</v>
-      </c>
-      <c r="D95" s="3">
-        <v>33133</v>
-      </c>
-      <c r="E95" t="s">
-        <v>235</v>
-      </c>
-      <c r="F95">
+        <v>46</v>
+      </c>
+      <c r="D95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>217</v>
+      <c r="B96" s="3">
+        <v>30234</v>
       </c>
       <c r="C96" t="s">
-        <v>129</v>
-      </c>
-      <c r="D96" s="3">
-        <v>30234</v>
-      </c>
-      <c r="E96" t="s">
-        <v>235</v>
-      </c>
-      <c r="F96">
+        <v>46</v>
+      </c>
+      <c r="D96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>218</v>
+      <c r="B97" s="3">
+        <v>30210</v>
       </c>
       <c r="C97" t="s">
-        <v>56</v>
-      </c>
-      <c r="D97" s="3">
-        <v>30210</v>
-      </c>
-      <c r="E97" t="s">
-        <v>236</v>
-      </c>
-      <c r="F97">
+        <v>47</v>
+      </c>
+      <c r="D97">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
-        <v>222</v>
+      <c r="B98" s="3">
+        <v>22953</v>
       </c>
       <c r="C98" t="s">
-        <v>130</v>
-      </c>
-      <c r="D98" s="3">
-        <v>22953</v>
-      </c>
-      <c r="E98" t="s">
-        <v>234</v>
-      </c>
-      <c r="F98">
+        <v>45</v>
+      </c>
+      <c r="D98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
-        <v>219</v>
+      <c r="B99" s="3">
+        <v>23058</v>
       </c>
       <c r="C99" t="s">
-        <v>131</v>
-      </c>
-      <c r="D99" s="3">
-        <v>23058</v>
-      </c>
-      <c r="E99" t="s">
-        <v>232</v>
-      </c>
-      <c r="F99">
+        <v>43</v>
+      </c>
+      <c r="D99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
-        <v>220</v>
+      <c r="B100" s="3">
+        <v>23887</v>
       </c>
       <c r="C100" t="s">
-        <v>69</v>
-      </c>
-      <c r="D100" s="3">
-        <v>23887</v>
-      </c>
-      <c r="E100" t="s">
-        <v>232</v>
-      </c>
-      <c r="F100">
+        <v>43</v>
+      </c>
+      <c r="D100">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>221</v>
+      <c r="B101" s="3">
+        <v>25049</v>
       </c>
       <c r="C101" t="s">
-        <v>132</v>
-      </c>
-      <c r="D101" s="3">
-        <v>25049</v>
-      </c>
-      <c r="E101" t="s">
-        <v>234</v>
-      </c>
-      <c r="F101">
+        <v>45</v>
+      </c>
+      <c r="D101">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F101" xr:uid="{760A9085-25EE-409C-B36A-B22AF2D50F4C}"/>
+  <autoFilter ref="A1:D101" xr:uid="{760A9085-25EE-409C-B36A-B22AF2D50F4C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
